--- a/applications/Susceptibility/policy_packages.xlsx
+++ b/applications/Susceptibility/policy_packages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\covid\covasim-australia\applications\Susceptibility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEF76E6-A9D0-4192-BB84-D51B211D4DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFAC6C9-F120-4FFE-883C-ED00CDF3BFF7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7830" yWindow="4740" windowWidth="27645" windowHeight="14700" xr2:uid="{363A7447-5636-4312-8C61-443E964E1E89}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="37">
   <si>
     <t>lockdown</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Relax 6</t>
+  </si>
+  <si>
+    <t>No policies</t>
   </si>
 </sst>
 </file>
@@ -513,7 +516,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,6 +526,7 @@
     <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="14.5703125" customWidth="1"/>
     <col min="14" max="14" width="24.5703125" customWidth="1"/>
   </cols>
@@ -558,6 +562,9 @@
       <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">

--- a/applications/Susceptibility/policy_packages.xlsx
+++ b/applications/Susceptibility/policy_packages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\covid\covasim-australia\applications\Susceptibility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFAC6C9-F120-4FFE-883C-ED00CDF3BFF7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57871427-A130-481F-A2CB-BE8D50833113}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7830" yWindow="4740" windowWidth="27645" windowHeight="14700" xr2:uid="{363A7447-5636-4312-8C61-443E964E1E89}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="32325" windowHeight="11640" xr2:uid="{363A7447-5636-4312-8C61-443E964E1E89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="47">
   <si>
     <t>lockdown</t>
   </si>
@@ -142,6 +142,36 @@
   </si>
   <si>
     <t>No policies</t>
+  </si>
+  <si>
+    <t>NL Full lockdown</t>
+  </si>
+  <si>
+    <t>NL Relax 1</t>
+  </si>
+  <si>
+    <t>NL Relax 2</t>
+  </si>
+  <si>
+    <t>NL Relax 3</t>
+  </si>
+  <si>
+    <t>NL Relax 4</t>
+  </si>
+  <si>
+    <t>NL Relax 5</t>
+  </si>
+  <si>
+    <t>NL Relax 6</t>
+  </si>
+  <si>
+    <t>NL Pre outbreak</t>
+  </si>
+  <si>
+    <t>NL Distancing only</t>
+  </si>
+  <si>
+    <t>lockdown_relax</t>
   </si>
 </sst>
 </file>
@@ -192,18 +222,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -513,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFDE838-72F0-469D-A110-71C7430CE35C}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,11 +546,13 @@
     <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.5703125" customWidth="1"/>
-    <col min="14" max="14" width="24.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -565,9 +586,35 @@
       <c r="K1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -599,423 +646,755 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>26</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>26</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>26</v>
+      </c>
+      <c r="R17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>26</v>
+      </c>
+      <c r="R19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>26</v>
+      </c>
+      <c r="R21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>26</v>
+      </c>
+      <c r="R23" t="s">
+        <v>26</v>
+      </c>
+      <c r="S23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" t="s">
+        <v>26</v>
+      </c>
+      <c r="O24" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>26</v>
+      </c>
+      <c r="R24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>26</v>
+      </c>
+      <c r="R25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" t="s">
+        <v>26</v>
+      </c>
+      <c r="O27" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>26</v>
+      </c>
+      <c r="R27" t="s">
         <v>26</v>
       </c>
     </row>
